--- a/medicine/Psychotrope/Abbaye_du_Mont-des-Cats/Abbaye_du_Mont-des-Cats.xlsx
+++ b/medicine/Psychotrope/Abbaye_du_Mont-des-Cats/Abbaye_du_Mont-des-Cats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye Sainte-Marie du Mont-des-Cats (connue simplement comme abbaye du Mont-des-Cats) est un monastère de moines cisterciens de tradition trappiste fondé en 1826 sur le mont des Cats (commune de Godewaersvelde), dans le Nord (France), qui releva une tradition pluriséculaire de vie religieuse sur le site. La communauté actuelle de moines trappistes compte une trentaine de membres.
@@ -512,15 +524,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1650, les Antonins s'installent au sommet du mont des Cats dont la région dépend de l'évêque d'Ypres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1650, les Antonins s'installent au sommet du mont des Cats dont la région dépend de l'évêque d'Ypres.
 En 1689, les frères sont rattachés à la communauté de Saint-Antoine situés sur le Mont Kemmel. En 1792, l'ermitage des Antonins est supprimé. En 1819, Nicolas Ruyssen, peintre né à Hazebrouck, achète les ruines de l'ancien ermitage au mont des Cats. En 1821, avec l'aide des Frères des Écoles chrétiennes de Saint-Omer, il y installe une école.
-Le 26 janvier 1826, quelques moines trappistes de l'abbaye de Notre-Dame du Gard arrivent. Le 18 mai 1826, Nicolas Ruyssen meurt et est enterré dans l'oratoire du monastère. Lors de la construction du nouveau monastère, on transféra son corps qui repose depuis lors dans l'église abbatiale du Mont-des-Cats. C'est donc sous l'impulsion de Nicolas Ruyssen qu'est fondée l'abbaye[2].
-Le 9 décembre 1847, le monastère est érigé en abbaye[3] par le cardinal et archevêque de Cambrai, Pierre Giraud, qui lui donna le nom d'« abbaye Sainte-Marie du Mont ». La communauté se composait alors de 47 religieux. À la fin du XIXe siècle, un nouveau monastère voit le jour.
+Le 26 janvier 1826, quelques moines trappistes de l'abbaye de Notre-Dame du Gard arrivent. Le 18 mai 1826, Nicolas Ruyssen meurt et est enterré dans l'oratoire du monastère. Lors de la construction du nouveau monastère, on transféra son corps qui repose depuis lors dans l'église abbatiale du Mont-des-Cats. C'est donc sous l'impulsion de Nicolas Ruyssen qu'est fondée l'abbaye.
+Le 9 décembre 1847, le monastère est érigé en abbaye par le cardinal et archevêque de Cambrai, Pierre Giraud, qui lui donna le nom d'« abbaye Sainte-Marie du Mont ». La communauté se composait alors de 47 religieux. À la fin du XIXe siècle, un nouveau monastère voit le jour.
 Durant la Première Guerre mondiale, l'abbaye sert de garnison et d'hôpital ; l'offensive allemande progressant, les moines évacuent les lieux; ils y reviennent à la fin de la guerre.
 La dédicace de l'église abbatiale rénovée par le nonce apostolique en France, Angelo Giuseppe Roncalli, futur Jean XXIII, eut lieu le 30 août 1950.
-Dans la seconde moitié du XXe siècle, l'abbaye a connu un grand rayonnement, par la qualité de ses recrutements, l'intensité de sa vie spirituelle, notamment sous l'influence de l'un de ses abbés, André Louf[4].
+Dans la seconde moitié du XXe siècle, l'abbaye a connu un grand rayonnement, par la qualité de ses recrutements, l'intensité de sa vie spirituelle, notamment sous l'influence de l'un de ses abbés, André Louf.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Abbés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1846-1883 : Dominique Lacaes
 1883-1889 : Sébastien Wyart
@@ -589,7 +605,9 @@
           <t>Architecture et description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Image de l'Abbaye du Mont des Cats
@@ -622,7 +640,9 @@
           <t>Filiation et dépendances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Mont-des-Cats est fille de l'abbaye du Gard.
 </t>
@@ -655,16 +675,91 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fromage
-L'abbaye produit dans sa petite fromagerie le fromage baptisé « Mont des Cats » appelé aussi « bourle du Mont des Cats », dont la vente assure à l'abbaye l'essentiel de ses ressources.
-Le  flamay est aussi un fromage de leur production[5].
-Bière
-C'est en 1847 qu'une forge et une brasserie sont installées dans l'abbaye. À l'origine brassée pour la consommation personnelle des moines - comme toutes les bières trappistes - la bière brune, forte et savoureuse, est appréciée par les visiteurs, et la commercialisation de la bière commence. La brasserie est modernisée en 1896 et en 1900, les 70 trappistes de l'abbaye emploient une cinquantaine d'ouvriers laïcs qui les secondent.
+          <t>Fromage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye produit dans sa petite fromagerie le fromage baptisé « Mont des Cats » appelé aussi « bourle du Mont des Cats », dont la vente assure à l'abbaye l'essentiel de ses ressources.
+Le  flamay est aussi un fromage de leur production.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abbaye_du_Mont-des-Cats</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_du_Mont-des-Cats</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités et produits</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bière</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1847 qu'une forge et une brasserie sont installées dans l'abbaye. À l'origine brassée pour la consommation personnelle des moines - comme toutes les bières trappistes - la bière brune, forte et savoureuse, est appréciée par les visiteurs, et la commercialisation de la bière commence. La brasserie est modernisée en 1896 et en 1900, les 70 trappistes de l'abbaye emploient une cinquantaine d'ouvriers laïcs qui les secondent.
 À la suite des lois de 1901 et 1904, une bonne partie des moines se réfugie à Watou en Belgique, dans une ferme où ils installèrent une abbaye qu’ils appelèrent Refuge Notre Dame de Saint Bernard, où ils allaient reprendre leur activité brassicole et créer la St. Bernardus.
 La production de bière cesse en 1905 à l'abbaye du Mont-des-Cats, dont le monastère, et la brasserie, sont totalement détruits par un bombardement en avril 1918. La brasserie n'a jamais été reconstruite.
-Le 9 juin 2011, l'abbaye présente la Mont des Cats comme la première bière trappiste[6] « française », bien qu'elle soit mise au point et brassée à l'abbaye de Scourmont (Chimay)[7].
-Éditions de Bellefontaine
-Les trappistes de six abbayes se sont unis en 2008 pour la reprise de cette maison d'éditions gérée jusque-là par l'abbaye de Bellefontaine, et désormais basée au Mont-des-Cats[8].
+Le 9 juin 2011, l'abbaye présente la Mont des Cats comme la première bière trappiste « française », bien qu'elle soit mise au point et brassée à l'abbaye de Scourmont (Chimay).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abbaye_du_Mont-des-Cats</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_du_Mont-des-Cats</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Activités et produits</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Éditions de Bellefontaine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les trappistes de six abbayes se sont unis en 2008 pour la reprise de cette maison d'éditions gérée jusque-là par l'abbaye de Bellefontaine, et désormais basée au Mont-des-Cats.
 En plus des collections existantes (Spiritualité monastique, Spiritualité orientale, etc.), ils publient depuis juin 2009 les écrits des moines trappistes de Tibhirine, assassinés en 1996.
 Dieu pour tout jour et l'Autre que nous attendons, de Christian de Chergé, prieur du monastère de Tibhirine.
 Adorateurs dans le souffle, du frère Christophe Lebreton, le plus jeune des moines assassinés, âgé de 45 ans.
